--- a/biology/Zoologie/Epthianure_à_collier/Epthianure_à_collier.xlsx
+++ b/biology/Zoologie/Epthianure_à_collier/Epthianure_à_collier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Epthianure_%C3%A0_collier</t>
+          <t>Epthianure_à_collier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epthianura crocea
 L'Epthianure à collier (Epthianura crocea) est une espèce d'oiseaux de la famille des Meliphagidae. Cet oiseau est répandu à travers le Nord de l'Australie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Epthianure_%C3%A0_collier</t>
+          <t>Epthianure_à_collier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype mâle de Epthianura crocea[2] mesure 110 mm avec des ailes de 61 mm. Et pour la femelle, respectivement 104 mm et 58 mm.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype mâle de Epthianura crocea mesure 110 mm avec des ailes de 61 mm. Et pour la femelle, respectivement 104 mm et 58 mm.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Epthianure_%C3%A0_collier</t>
+          <t>Epthianure_à_collier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (11 juillet 2020)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (11 juillet 2020) :
 sous-espèce Epthianura crocea crocea Castelnau &amp; E. P. Ramsay, 1877
 sous-espèce Epthianura crocea macgregori Keast, 1958
 sous-espèce Epthianura crocea tunneyi Mathews, 1912</t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Epthianure_%C3%A0_collier</t>
+          <t>Epthianure_à_collier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
